--- a/docs/assets/disciplinas/LOM3116.xlsx
+++ b/docs/assets/disciplinas/LOM3116.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,37 +67,40 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
+    <t>3586455 - Cassius Olivio Figueiredo Terra Ruchert</t>
+  </si>
+  <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas teóricas. Confecção de lista de exercícios orientada pelo professor e amplo estudos de casos reais.</t>
-  </si>
-  <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
-  </si>
-  <si>
-    <t>Critério:</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
@@ -595,10 +598,10 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
@@ -611,31 +614,31 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
@@ -643,32 +646,32 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3116.xlsx
+++ b/docs/assets/disciplinas/LOM3116.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,24 +67,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao aluno os procedimentos gerais para análise e identificação de falhas em componentes mecânicos. Apresentar os métodos de investigação de falhas em serviço de materiais e estruturas. Integrar fundamentos de Mecânica dos Sólidos e Ciência dos Materiais visando o entendimento dos principais mecanismos de falhas e sua prevenção. Familiarizar os alunos com técnicas experimentais de análise englobando os ensaios destrutivos, ensaios não destrutivos e exames fractográficos. Instruir sobre os procedimentos de análise por meio de estudos de casos práticos de falhas de componentes e equipamentos de engenharia.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>3586455 - Cassius Olivio Figueiredo Terra Ruchert</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Histórico e Conceitos Básicos. Causas e processos que conduzem à falha em serviço. Metodologia para Análise de Falhas. Ensaios destrutivos e não destrutivos. Critérios de falha para tensões multiaxiais. Elementos de Mecânica da Fratura. Aspectos macroscópicos e microscópicos: modos e mecanismos de fratura. Fratura dúctil e fratura frágil. Falhas por sobrecarga, por fadiga, fluência, desgaste e interação com o meio. Estudos de casos de análise de falhas.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1.PROCEDIMENTOS GERAIS PARA ANÁLISE DE FALHAS.1.1. Informações necessárias 1.2. Exames preliminares 1.3. Cuidados 1.4 Métodos de ensaios e análise1.4.1 Ensaiosnão destrutivos 1.4.2 Ensaios mecânicos 1.4.3 Análise metalográfica 1.4.4 Análise fractográfica 1.4.5 Análise química1.4.6 Ensaios de simulação em serviços 1.5 Conclusões e relatórios técnico 1.6 Literaturas úteis sobre Análise deFalhas, 1.7 Erros de Projeto, 1.8 Erros de Montagem e instalação1.9 Condições de operação ou manutenção inadequadas1.10 Cuidados no armazenamento e limpeza adequada do componente 1.11 Ensaios Mecânicos em geral aplicados na Análise de Falha 1.12 Simulação computacional com suporte a análise de falhas.2. IDENTIFICAÇÃO DOS TIPOS DE FALHAS2.1 Classificação 2.2 Fratura dúctil 2.3 Fratura frágil 2.4 Fratura por fadiga 2.5 Fratura por fluência3. FRATURA ASSISTIDA PELO AMBIENTE3.1 Introdução 3.2 Modos e causas 3.3 Aspectos macroscópicos microscópio 3.4 Efeito da temperatura 3.5 Influência do ambiente e processo de fabricação 4. APLICAÇÃO DA MECÂNICA DA FRATURA NA ANÁLISE DE FALHAS4.1 Introdução 4.2 Conceitos de mecânica da fratura 4.3 Estados de tensão e de deformação 4.4 Ensaios de tenacidade à fratura 4.5 Critérios de projeto, 4.6 Modos e Mecanismo de fratura, 4.7 Aplicabilidade5. FALHAS POR FADIGA5.1 Introdução 5.2 Nucleação e crescimento de trincas por fadiga 5.3 Estágios da fratura por fadiga 5.4 Observação da superfície da fratura 5.5. Métodos de análise 5.6 Efeito da tensão na resistência à fratura 5.7 Efeitos de projetos 5.8 Concentrados de tensão 5.9 Efeitos microestruturais 5.10 Efeitos do processo de fabricação 5.11 Efeitos da temperatura5.12 Fadiga/corrosão 5.13 Fadiga por contato6. OUTROS TIPOS DE FALHAS6.1 Desgaste 6.2 Corrosão 6.3 Temperaturas elevadas 6.4 Erosão por líquido 6.5 Corrosão por tensão 6.6 Fragilização por metal sólido e líquido 6.7 Fragilização por hidrogênio.7. EXEMPLOS DE CASOS DE FALHAS EM COMPONENTES MECÂNICOS.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -94,25 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>3586455 - Cassius Olivio Figueiredo Terra Ruchert</t>
+    <t>Aulas expositivas teóricas. Confecção de lista de exercícios orientada pelo professor e amplo estudos de casos reais.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas teóricas. Confecção de lista de exercícios orientada pelo professor e amplo estudos de casos reais.</t>
+    <t>Média ponderada das notas de seminários, relatórios advindos do estudo de caso em grupos de trabalho (não haverá prova escrita)</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas de seminários, relatórios advindos do estudo de caso em grupos de trabalho (não haverá prova escrita)</t>
+    <t>Não haverá recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não haverá recuperação.</t>
+    <t>1) Wulpi, D.J. Understanding How Components Fail. ASM International, 3rd ed., 2013, 300p. (ISBN: 978-1627080149).2) BROOKS, C.R.; CHONCHURY, A. Metallurgical failure analysis. ISBN 0-07-008078-X-MacGraw-Hill. 1993. Failure analysis case studies. Edited by., D.R.H. Jones, vol. 1,2, Pergamon 1998 and 2001.3) Principles of Failures analysis vídeocourse - Produced by ASM International.4) Analise de Fraturas – Autor: Paulo R. Celtin ET all. Associação Brasileira de Metais (ABM). Metalografia e Análise de Falhas - Casos Selecionados (1933-2003), Cesar R. F. Azevedo; Tibério Cescon – 20045) Analise de Falhas “apresentação de casos” CCDM/UFSCar/UNESP – 20046) Azevedo, C.R.F. Casos Selecionados de Análise de Falhas. São Paulo: Escola Politécnica da USP, 2018, 241p. (ISBN: 978-85-5338-001-5).7) Barbosa, C. Fundamentos da Análise Fractográfica de Falhas de Materiais Metálicos. São Paulo: Editora Edgar Blücher, 2021, 165p. (ISBN: 978-65-5506-181-9).8) Dowling, N.E.; Kampe, S.L.; Kral, M.V. Mechanical Behavior of Materials. Pearson Education, 5th ed., 2019, 946p. (ISBN: 0-13-460654-X).9) Hertzberg, R.W. Deformation and Fracture Mechanics of Engineering Materials.10) Nishida, S.I. Failure Analysis in Engineering Applications. Oxford: Butterworth Heinemann, 1992, 211p. (ISBN: 1-4831-7796-3).</t>
   </si>
 </sst>
 </file>
@@ -468,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -593,62 +605,56 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -663,7 +669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -672,6 +678,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
